--- a/user-data/out_oda_net_2015/out_oda_net_2015.xlsx
+++ b/user-data/out_oda_net_2015/out_oda_net_2015.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Description: Net ODA provided by OECD DAC members, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
